--- a/書籍筆數統計.xlsx
+++ b/書籍筆數統計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibame\Desktop\網路爬蟲\WebCrawle-eslite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B88C558-E45D-4A57-AE3F-74AEB24F46CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D0ADB-73F9-4FB1-8ECD-335D057CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B276F842-CEEE-4A84-87D8-3863753646EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>C語言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,142 @@
   </si>
   <si>
     <t>Data mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路爬蟲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireshark</t>
+  </si>
+  <si>
+    <t>文字探勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text mining</t>
+  </si>
+  <si>
+    <t>Data visualization</t>
+  </si>
+  <si>
+    <t>資料視覺化</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>Fintech</t>
+  </si>
+  <si>
+    <t>演算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料結構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語音辨識</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像辨識</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Artlantis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catia</t>
+  </si>
+  <si>
+    <t>CNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusion 360</t>
+  </si>
+  <si>
+    <t>Mastercam</t>
+  </si>
+  <si>
+    <t>電腦網路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網際網路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speech recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦視覺</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement</t>
+  </si>
+  <si>
+    <t>強化學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +326,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +366,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADBBBC-02C8-407F-B42E-0AD08295E992}">
-  <dimension ref="B1:J37"/>
+  <dimension ref="B1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="4" max="4" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,8 +833,8 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <f>SUM(C1:C49)</f>
-        <v>8107</v>
+        <f>SUM(C1:C100)</f>
+        <v>13168</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -850,6 +995,310 @@
       </c>
       <c r="C37">
         <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/書籍筆數統計.xlsx
+++ b/書籍筆數統計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibame\Desktop\網路爬蟲\WebCrawle-eslite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D0ADB-73F9-4FB1-8ECD-335D057CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F46CA0-3BAA-410B-B35D-B063ED94CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B276F842-CEEE-4A84-87D8-3863753646EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>C語言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,163 @@
   </si>
   <si>
     <t>Penetration testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區塊鏈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blockchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式交易</t>
+  </si>
+  <si>
+    <t>虛擬化技術</t>
+  </si>
+  <si>
+    <t>Virtualization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>會聲會影</t>
+  </si>
+  <si>
+    <t>Videostudio</t>
+  </si>
+  <si>
+    <t>API Design</t>
+  </si>
+  <si>
+    <t>WebAssembly</t>
+  </si>
+  <si>
+    <t>Ext JS</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>Command lin</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>Apple Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game engine</t>
+  </si>
+  <si>
+    <t>3D modeling</t>
+  </si>
+  <si>
+    <t>Game design</t>
+  </si>
+  <si>
+    <t>遊戲設計</t>
+  </si>
+  <si>
+    <t>VR/AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL</t>
+  </si>
+  <si>
+    <t>WebGL</t>
+  </si>
+  <si>
+    <t>Computer architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算機組織</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編譯器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile communication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>數位影像處理</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>Digital image</t>
+  </si>
+  <si>
+    <t>設計模式</t>
+  </si>
+  <si>
+    <t>Object oriented</t>
+  </si>
+  <si>
+    <t>物件導向</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>重構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain Driven Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go 程式語言</t>
+  </si>
+  <si>
+    <t>作業系統原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++程式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,18 +484,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +548,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,621 +873,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADBBBC-02C8-407F-B42E-0AD08295E992}">
-  <dimension ref="B1:J75"/>
+  <dimension ref="B1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1">
         <v>434</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="5">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>32759</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5">
+        <v>89</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5">
         <v>447</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5">
+        <v>362</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5">
+        <v>144</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
+        <v>132</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>153</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13">
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5">
+        <v>214</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17">
         <v>31</v>
       </c>
-      <c r="J17">
-        <f>SUM(C1:C100)</f>
-        <v>13168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5">
+        <v>192</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5">
+        <v>186</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="5">
+        <v>271</v>
+      </c>
+      <c r="K20" s="7">
+        <f>SUM(C1:C40)+SUM(F1:F40)+SUM(I1:I40)+SUM(L1:L40)</f>
+        <v>49025</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21">
         <v>297</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5">
+        <v>59</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5">
+        <v>101</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="5">
+        <v>67</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24">
         <v>813</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5">
+        <v>95</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="5">
+        <v>247</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="E26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5">
+        <v>56</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
         <v>1120</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="5">
+        <v>842</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="E28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="E29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="E30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="5">
+        <v>27</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="E31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="5">
+        <v>76</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32">
         <v>450</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="E32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5">
+        <v>91</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33">
         <v>185</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="E33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="5">
+        <v>355</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34">
         <v>429</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="E34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="5">
+        <v>989</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="E35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5">
+        <v>49</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="E36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="5">
+        <v>114</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="E37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="5">
+        <v>360</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="E38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="5">
+        <v>40</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="E39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="5">
+        <v>16</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>49</v>
-      </c>
+      <c r="E40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="5">
+        <v>17</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/書籍筆數統計.xlsx
+++ b/書籍筆數統計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibame\Desktop\網路爬蟲\WebCrawle-eslite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F46CA0-3BAA-410B-B35D-B063ED94CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56976C-D77C-4DE3-BFB1-704E32612E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B276F842-CEEE-4A84-87D8-3863753646EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>C語言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>c++程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premiere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADBBBC-02C8-407F-B42E-0AD08295E992}">
   <dimension ref="B1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -962,6 +986,12 @@
       <c r="I3" s="5">
         <v>167</v>
       </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
@@ -983,6 +1013,9 @@
       <c r="I4" s="5">
         <v>28</v>
       </c>
+      <c r="K4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
@@ -1004,6 +1037,9 @@
       <c r="I5" s="5">
         <v>2</v>
       </c>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
@@ -1025,6 +1061,9 @@
       <c r="I6" s="5">
         <v>4</v>
       </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
@@ -1046,6 +1085,9 @@
       <c r="I7" s="5">
         <v>8</v>
       </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
@@ -1298,6 +1340,9 @@
       <c r="I19" s="5">
         <v>86</v>
       </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
@@ -1321,7 +1366,7 @@
       </c>
       <c r="K20" s="7">
         <f>SUM(C1:C40)+SUM(F1:F40)+SUM(I1:I40)+SUM(L1:L40)</f>
-        <v>49025</v>
+        <v>49098</v>
       </c>
     </row>
     <row r="21" spans="2:11">

--- a/書籍筆數統計.xlsx
+++ b/書籍筆數統計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibame\Desktop\網路爬蟲\WebCrawle-eslite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56976C-D77C-4DE3-BFB1-704E32612E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E87B2-62B3-4C16-B1D4-D83B104F0CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B276F842-CEEE-4A84-87D8-3863753646EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>C語言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,14 @@
   </si>
   <si>
     <t>illustrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設計攝影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +538,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +595,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ADBBBC-02C8-407F-B42E-0AD08295E992}">
   <dimension ref="B1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -963,7 +980,7 @@
         <v>120</v>
       </c>
       <c r="L2">
-        <v>32759</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -1014,7 +1031,10 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -1038,7 +1058,10 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>5412</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1061,9 +1084,6 @@
       <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
@@ -1085,9 +1105,6 @@
       <c r="I7" s="5">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
@@ -1109,6 +1126,12 @@
       <c r="I8" s="5">
         <v>8</v>
       </c>
+      <c r="K8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="8">
+        <v>698</v>
+      </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1" t="s">
@@ -1130,6 +1153,12 @@
       <c r="I9" s="5">
         <v>2</v>
       </c>
+      <c r="K9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="8">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="1" t="s">
@@ -1151,6 +1180,12 @@
       <c r="I10" s="5">
         <v>12</v>
       </c>
+      <c r="K10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="8">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1" t="s">
@@ -1172,6 +1207,12 @@
       <c r="I11" s="5">
         <v>43</v>
       </c>
+      <c r="K11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="8">
+        <v>493</v>
+      </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
@@ -1366,7 +1407,7 @@
       </c>
       <c r="K20" s="7">
         <f>SUM(C1:C40)+SUM(F1:F40)+SUM(I1:I40)+SUM(L1:L40)</f>
-        <v>49098</v>
+        <v>30212</v>
       </c>
     </row>
     <row r="21" spans="2:11">
